--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dcn-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dcn-Egfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.615074666666666</v>
+        <v>1.233789666666667</v>
       </c>
       <c r="H2">
-        <v>19.845224</v>
+        <v>3.701369</v>
       </c>
       <c r="I2">
-        <v>0.0008916467884469989</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="J2">
-        <v>0.0008916467884469988</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N2">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q2">
-        <v>13.79454750389333</v>
+        <v>0.5061741373834445</v>
       </c>
       <c r="R2">
-        <v>124.15092753504</v>
+        <v>4.555567236451</v>
       </c>
       <c r="S2">
-        <v>1.563745328520097E-05</v>
+        <v>5.824185905331481E-07</v>
       </c>
       <c r="T2">
-        <v>1.563745328520097E-05</v>
+        <v>5.82418590533148E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.615074666666666</v>
+        <v>1.233789666666667</v>
       </c>
       <c r="H3">
-        <v>19.845224</v>
+        <v>3.701369</v>
       </c>
       <c r="I3">
-        <v>0.0008916467884469989</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="J3">
-        <v>0.0008916467884469988</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q3">
-        <v>674.0640227919173</v>
+        <v>125.7209128996123</v>
       </c>
       <c r="R3">
-        <v>6066.576205127256</v>
+        <v>1131.488216096511</v>
       </c>
       <c r="S3">
-        <v>0.0007641167399415087</v>
+        <v>0.0001446581156240792</v>
       </c>
       <c r="T3">
-        <v>0.0007641167399415085</v>
+        <v>0.0001446581156240792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.615074666666666</v>
+        <v>1.233789666666667</v>
       </c>
       <c r="H4">
-        <v>19.845224</v>
+        <v>3.701369</v>
       </c>
       <c r="I4">
-        <v>0.0008916467884469989</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="J4">
-        <v>0.0008916467884469988</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q4">
-        <v>98.70582453224267</v>
+        <v>18.40980374134767</v>
       </c>
       <c r="R4">
-        <v>888.3524207901841</v>
+        <v>165.688233672129</v>
       </c>
       <c r="S4">
-        <v>0.0001118925952202893</v>
+        <v>2.118285221456333E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001118925952202893</v>
+        <v>2.118285221456333E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>21857.103027</v>
       </c>
       <c r="I5">
-        <v>0.9820406017477925</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="J5">
-        <v>0.9820406017477923</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N5">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O5">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P5">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q5">
-        <v>15193.01802808788</v>
+        <v>2989.029267385337</v>
       </c>
       <c r="R5">
-        <v>136737.1622527909</v>
+        <v>26901.26340646804</v>
       </c>
       <c r="S5">
-        <v>0.01722275483181935</v>
+        <v>0.00343926345579788</v>
       </c>
       <c r="T5">
-        <v>0.01722275483181934</v>
+        <v>0.00343926345579788</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>21857.103027</v>
       </c>
       <c r="I6">
-        <v>0.9820406017477925</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="J6">
-        <v>0.9820406017477923</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P6">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q6">
         <v>742399.6218413566</v>
@@ -818,10 +818,10 @@
         <v>6681596.59657221</v>
       </c>
       <c r="S6">
-        <v>0.8415817483116808</v>
+        <v>0.8542264596929349</v>
       </c>
       <c r="T6">
-        <v>0.8415817483116804</v>
+        <v>0.8542264596929348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>21857.103027</v>
       </c>
       <c r="I7">
-        <v>0.9820406017477925</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="J7">
-        <v>0.9820406017477923</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q7">
         <v>108712.4728935391</v>
       </c>
       <c r="R7">
-        <v>978412.2560418523</v>
+        <v>978412.2560418522</v>
       </c>
       <c r="S7">
-        <v>0.1232360986042925</v>
+        <v>0.1250877130217025</v>
       </c>
       <c r="T7">
-        <v>0.1232360986042924</v>
+        <v>0.1250877130217025</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>379.873909</v>
       </c>
       <c r="I8">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="J8">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N8">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O8">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P8">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q8">
-        <v>264.0528866386267</v>
+        <v>51.94898109390123</v>
       </c>
       <c r="R8">
-        <v>2376.47597974764</v>
+        <v>467.540829845111</v>
       </c>
       <c r="S8">
-        <v>0.0002993294762636181</v>
+        <v>5.977399893393426E-05</v>
       </c>
       <c r="T8">
-        <v>0.000299329476263618</v>
+        <v>5.977399893393425E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>379.873909</v>
       </c>
       <c r="I9">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="J9">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P9">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q9">
         <v>12902.81909915609</v>
@@ -1004,10 +1004,10 @@
         <v>116125.3718924048</v>
       </c>
       <c r="S9">
-        <v>0.01462659292401625</v>
+        <v>0.01484635653745762</v>
       </c>
       <c r="T9">
-        <v>0.01462659292401624</v>
+        <v>0.01484635653745761</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>379.873909</v>
       </c>
       <c r="I10">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="J10">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q10">
-        <v>1889.410137478475</v>
+        <v>1889.410137478474</v>
       </c>
       <c r="R10">
         <v>17004.69123730627</v>
       </c>
       <c r="S10">
-        <v>0.002141829063480766</v>
+        <v>0.002174009906744094</v>
       </c>
       <c r="T10">
-        <v>0.002141829063480765</v>
+        <v>0.002174009906744094</v>
       </c>
     </row>
   </sheetData>
